--- a/task_update.xlsx
+++ b/task_update.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Aswathi" sheetId="1" r:id="rId1"/>
     <sheet name="Keerthana" sheetId="2" r:id="rId2"/>
     <sheet name="Sowbarnika" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="82">
   <si>
     <t xml:space="preserve">SNO </t>
   </si>
@@ -189,12 +189,99 @@
   <si>
     <t>1:00 - 5:05 pm</t>
   </si>
+  <si>
+    <t>Labelling data set sample set collection started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labelling data set sample set collection </t>
+  </si>
+  <si>
+    <t>Internal Exam</t>
+  </si>
+  <si>
+    <t>Boundary value conversion</t>
+  </si>
+  <si>
+    <t>10:45-4:15pm</t>
+  </si>
+  <si>
+    <t>Traing data sets</t>
+  </si>
+  <si>
+    <t>Traing data sets - DiaryMilk</t>
+  </si>
+  <si>
+    <t>Traing data sets - lays</t>
+  </si>
+  <si>
+    <t>Generated CSV files for new dataset</t>
+  </si>
+  <si>
+    <t>DB connection</t>
+  </si>
+  <si>
+    <t>DB connection study</t>
+  </si>
+  <si>
+    <t>10:00 - 2:45 pm</t>
+  </si>
+  <si>
+    <t>ML _ Meet Up</t>
+  </si>
+  <si>
+    <t>DB connector installation</t>
+  </si>
+  <si>
+    <t>Demo on DB connection using MySql db.</t>
+  </si>
+  <si>
+    <t>Deployment of TF Models - Study</t>
+  </si>
+  <si>
+    <t>UI design</t>
+  </si>
+  <si>
+    <t>Implementing OCR in python</t>
+  </si>
+  <si>
+    <t>Labelling and upgrading  softwares</t>
+  </si>
+  <si>
+    <t>Labelling completed and DB connection</t>
+  </si>
+  <si>
+    <t>UI design  and DB connection</t>
+  </si>
+  <si>
+    <t>DB Connectivity Demo</t>
+  </si>
+  <si>
+    <t>Generated TFRecord files for new dataset</t>
+  </si>
+  <si>
+    <t>Form validation</t>
+  </si>
+  <si>
+    <t>Training model preparation</t>
+  </si>
+  <si>
+    <t>study on text recognition</t>
+  </si>
+  <si>
+    <t>Attempted to train dataset</t>
+  </si>
+  <si>
+    <t>Database connectivity</t>
+  </si>
+  <si>
+    <t>Data extraction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +328,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,12 +408,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,6 +522,49 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -397,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,10 +658,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +692,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,28 +867,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1">
       <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -701,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -721,7 +948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -741,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -761,7 +988,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -781,7 +1008,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -796,7 +1023,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -811,7 +1038,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -826,7 +1053,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -841,7 +1068,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -856,7 +1083,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -876,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -896,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -916,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -930,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -944,7 +1171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -964,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -984,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1004,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1024,7 +1251,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1044,7 +1271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1064,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1084,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1104,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1124,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1144,7 +1371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1164,7 +1391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1178,7 +1405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1192,7 +1419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1212,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1228,10 +1455,474 @@
       <c r="E32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="23">
+        <v>43139</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="23">
+        <v>43140</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="23">
+        <v>43141</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="23">
+        <v>43143</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="25">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="23">
+        <v>43144</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="25">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="23">
+        <v>43145</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="25">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="23">
+        <v>43146</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="25">
+        <v>49</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="23">
+        <v>43147</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="25">
+        <v>50</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="23">
+        <v>43148</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="23">
+        <v>43150</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43151</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,24 +1930,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A43" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1296,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1316,7 +2007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1336,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1356,7 +2047,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1376,7 +2067,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1391,7 +2082,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1406,7 +2097,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1421,7 +2112,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1436,7 +2127,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1451,7 +2142,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1471,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1491,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1511,7 +2202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1525,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1539,7 +2230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1559,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1579,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1599,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1619,7 +2310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1639,7 +2330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1659,7 +2350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1679,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1699,7 +2390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1719,7 +2410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1739,7 +2430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1759,7 +2450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1779,7 +2470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1793,7 +2484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1807,7 +2498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1827,7 +2518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1847,20 +2538,487 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="23">
+        <v>43139</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="23">
+        <v>43140</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="23">
+        <v>43141</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="23">
+        <v>43143</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="25">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23">
+        <v>43144</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="25">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="23">
+        <v>43145</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="25">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="23">
+        <v>43146</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="25">
+        <v>49</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="23">
+        <v>43147</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="25">
+        <v>50</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="23">
+        <v>43148</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="23">
+        <v>43150</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43151</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -1870,7 +3028,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1910,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1930,7 +3088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1946,7 +3104,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1966,7 +3124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1986,7 +3144,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2001,7 +3159,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2016,7 +3174,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2031,7 +3189,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2046,7 +3204,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2061,7 +3219,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2081,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2101,7 +3259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2117,7 +3275,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2133,7 +3291,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2153,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2173,7 +3331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2193,7 +3351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2213,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2233,7 +3391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2253,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2273,7 +3431,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2293,7 +3451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2313,7 +3471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2333,7 +3491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2353,7 +3511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2373,7 +3531,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2393,7 +3551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2407,7 +3565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2421,7 +3579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2441,7 +3599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2458,6 +3616,470 @@
         <v>51</v>
       </c>
       <c r="F32" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="23">
+        <v>43139</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="23">
+        <v>43140</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="23">
+        <v>43141</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="23">
+        <v>43143</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="23">
+        <v>43144</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="31">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="23">
+        <v>43145</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="31">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="23">
+        <v>43146</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="34">
+        <v>49</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="23">
+        <v>43147</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="34">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="23">
+        <v>43148</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="34">
+        <v>51</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="23">
+        <v>43150</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="34">
+        <v>52</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43151</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>9</v>
       </c>
     </row>
